--- a/biology/Zoologie/Bistonina_bactriana/Bistonina_bactriana.xlsx
+++ b/biology/Zoologie/Bistonina_bactriana/Bistonina_bactriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bistonina bactriana est un papillon de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Bistonina.
 </t>
@@ -511,11 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bistonina bactriana a été décrit par William Chapman Hewitson en 1868 sous le nom de Thecla bactriana[1].
-Nom vernaculaire
-Bistonina  biston se nomme Bactriana Hairstreak en anglais[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bistonina bactriana a été décrit par William Chapman Hewitson en 1868 sous le nom de Thecla bactriana.
 </t>
         </is>
       </c>
@@ -541,10 +553,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bistonina  biston se nomme Bactriana Hairstreak en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bistonina_bactriana</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bistonina_bactriana</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bistonina bactriana est un petit papillon avec deux fines queues à chaque aile postérieure, une courte et une longue.
 Le dessus est aux ailes antérieures noir avec une plage bleu outremer le long du bord interne et aux ailes postérieures bleu outremer avec deux bandes noires le long du bord costal et du bord interne.
@@ -553,36 +604,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Bistonina_bactriana</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Bistonina_bactriana</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -607,14 +628,50 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bistonina bactriana  réside au Brésil et en Guyane[1],[3],[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bistonina bactriana  réside au Brésil et en Guyane.
 Sur les autres projets Wikimedia :
 Bistonina bactriana, sur Wikimedia CommonsBistonina bactriana, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bistonina_bactriana</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bistonina_bactriana</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
